--- a/NHANES_data_dictionary.xlsx
+++ b/NHANES_data_dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Research\EPID 674\EPID674_Week2_Class\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2C4D7C-E99F-4268-B30C-EF4024265C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7C2624-89AF-4904-8ECB-F4E11519314A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C5EF0901-5797-40BB-A849-28BF0A615FC1}"/>
+    <workbookView xWindow="15" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{C5EF0901-5797-40BB-A849-28BF0A615FC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -634,19 +634,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BF6E600-8E76-4EDD-9654-91E74086C8FC}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.54296875" customWidth="1"/>
     <col min="2" max="2" width="27.81640625" customWidth="1"/>
-    <col min="3" max="3" width="37.453125" customWidth="1"/>
-    <col min="4" max="4" width="19.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" customWidth="1"/>
-    <col min="6" max="6" width="13.1796875" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="4" max="4" width="37.453125" customWidth="1"/>
+    <col min="5" max="5" width="19.1796875" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" customWidth="1"/>
     <col min="7" max="7" width="27.54296875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>37</v>
@@ -684,7 +684,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -693,7 +693,7 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
@@ -710,16 +710,16 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>28</v>
       </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="G3" t="s">
         <v>18</v>
@@ -736,16 +736,16 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
         <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
@@ -761,17 +761,17 @@
       <c r="B5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>33</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
@@ -787,17 +787,17 @@
       <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>29</v>
       </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="G6" t="s">
         <v>17</v>
@@ -814,7 +814,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -823,7 +823,7 @@
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
@@ -839,17 +839,17 @@
       <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>35</v>
       </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="G8" t="s">
         <v>16</v>
@@ -866,7 +866,7 @@
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -875,7 +875,7 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
@@ -892,7 +892,7 @@
         <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -901,7 +901,7 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G10" t="s">
         <v>15</v>
@@ -918,16 +918,16 @@
         <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
       <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
         <v>55</v>
-      </c>
-      <c r="F11" t="s">
-        <v>34</v>
       </c>
       <c r="G11" t="s">
         <v>43</v>
@@ -944,16 +944,16 @@
         <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
       </c>
       <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
         <v>56</v>
-      </c>
-      <c r="F12" t="s">
-        <v>34</v>
       </c>
       <c r="G12" t="s">
         <v>44</v>
@@ -970,16 +970,16 @@
         <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
       </c>
       <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
         <v>56</v>
-      </c>
-      <c r="F13" t="s">
-        <v>34</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -996,16 +996,16 @@
         <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
       </c>
       <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
         <v>56</v>
-      </c>
-      <c r="F14" t="s">
-        <v>34</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -1022,7 +1022,7 @@
         <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
@@ -1031,7 +1031,7 @@
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="G15" t="s">
         <v>48</v>
@@ -1048,16 +1048,16 @@
         <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
       </c>
       <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
         <v>60</v>
-      </c>
-      <c r="F16" t="s">
-        <v>19</v>
       </c>
       <c r="G16" t="s">
         <v>58</v>
@@ -1074,16 +1074,16 @@
         <v>62</v>
       </c>
       <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
         <v>63</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>64</v>
       </c>
-      <c r="E17" t="s">
-        <v>7</v>
-      </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="G17" t="s">
         <v>58</v>
@@ -1100,16 +1100,16 @@
         <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
       </c>
       <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
         <v>72</v>
-      </c>
-      <c r="F18" t="s">
-        <v>34</v>
       </c>
       <c r="G18" t="s">
         <v>68</v>
@@ -1126,16 +1126,16 @@
         <v>75</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
       </c>
       <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
         <v>73</v>
-      </c>
-      <c r="F19" t="s">
-        <v>34</v>
       </c>
       <c r="G19" t="s">
         <v>69</v>
@@ -1152,16 +1152,16 @@
         <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
       </c>
       <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
         <v>72</v>
-      </c>
-      <c r="F20" t="s">
-        <v>34</v>
       </c>
       <c r="G20" t="s">
         <v>70</v>
@@ -1178,16 +1178,16 @@
         <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
       </c>
       <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
         <v>60</v>
-      </c>
-      <c r="F21" t="s">
-        <v>34</v>
       </c>
       <c r="G21" t="s">
         <v>71</v>
